--- a/fire_station_project/report_templates/passenger_car.xlsx
+++ b/fire_station_project/report_templates/passenger_car.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\server\serverFireStation\fire_station_project\report_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CCD6B6-C6F2-4964-85D5-2440CC9AB870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158074C8-D65F-4D01-A344-7B27F8149CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>ЭКСПЛУАТАЦИОННАЯ КАРТОЧКА</t>
   </si>
@@ -33,15 +33,9 @@
     <t>Дата</t>
   </si>
   <si>
-    <t>Фамилия, и., о. водителя</t>
-  </si>
-  <si>
     <t>РАБОТА ЛЕГКОВОГО  АВТОМОБИЛЯ</t>
   </si>
   <si>
-    <t>Наличие ГСМ перед выездом</t>
-  </si>
-  <si>
     <t xml:space="preserve">Всего пройдено км </t>
   </si>
   <si>
@@ -54,15 +48,6 @@
     <t>Израсходовано ГСМ,    л</t>
   </si>
   <si>
-    <t>Показания спидометра перед выездом</t>
-  </si>
-  <si>
-    <t>Заправка топлива в автомобиль,   л</t>
-  </si>
-  <si>
-    <t>Остаток бензина при возвращении</t>
-  </si>
-  <si>
     <t>Город</t>
   </si>
   <si>
@@ -81,20 +66,41 @@
     <t>Израсходовано ГСМ по норме, л</t>
   </si>
   <si>
-    <t>Показания спидометра при возвращении</t>
-  </si>
-  <si>
-    <t>Экономия</t>
-  </si>
-  <si>
-    <t>Перерасход</t>
+    <t>Наличие ГСМ перед выездом, л</t>
+  </si>
+  <si>
+    <t>Показания спидометра перед выездом, км</t>
+  </si>
+  <si>
+    <t>Получено ГСМ, л</t>
+  </si>
+  <si>
+    <t>Наличие ГСМ при возвращении, л</t>
+  </si>
+  <si>
+    <t>Показания спидометра при возвращении, км</t>
+  </si>
+  <si>
+    <t>Экономия, л</t>
+  </si>
+  <si>
+    <t>Перерасход, л</t>
+  </si>
+  <si>
+    <t>Фамилия И. О. водителя</t>
+  </si>
+  <si>
+    <t>Пройдено км по городу</t>
+  </si>
+  <si>
+    <t>Пройдено км по области</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,14 +159,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -289,14 +287,35 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -322,35 +341,14 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,150 +643,152 @@
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
     <col min="14" max="14" width="14.42578125" customWidth="1"/>
     <col min="15" max="15" width="12.28515625" customWidth="1"/>
     <col min="16" max="16" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="13"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="31"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="27"/>
+    </row>
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+    </row>
+    <row r="4" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="20"/>
+      <c r="J4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="20"/>
-    </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-    </row>
-    <row r="4" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="26" t="s">
+      <c r="N4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="30" t="s">
+      <c r="K5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="28"/>
-      <c r="L4" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="24"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="13"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -1162,6 +1162,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="P4:P5"/>
@@ -1177,13 +1184,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
